--- a/data/trans_orig/P6711-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P6711-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>39678</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29109</v>
+        <v>29202</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53618</v>
+        <v>54082</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1421211449846739</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1042641808878605</v>
+        <v>0.1045981351742555</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1920523068700819</v>
+        <v>0.1937136989551792</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -763,19 +763,19 @@
         <v>31875</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22367</v>
+        <v>23215</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43607</v>
+        <v>44161</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1427241852708286</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1001503297050801</v>
+        <v>0.1039488146657082</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1952534215737312</v>
+        <v>0.1977341146314174</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>66</v>
@@ -784,19 +784,19 @@
         <v>71553</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>57084</v>
+        <v>55099</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>90982</v>
+        <v>87352</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1423891532824191</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1135958608896511</v>
+        <v>0.1096449688218551</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1810528475417651</v>
+        <v>0.1738290237884157</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>18306</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10581</v>
+        <v>10176</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29161</v>
+        <v>28278</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06556792963499956</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03789909994045411</v>
+        <v>0.03644800758800591</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1044490689660336</v>
+        <v>0.1012877757419771</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -834,19 +834,19 @@
         <v>26269</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16169</v>
+        <v>17070</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>38092</v>
+        <v>38609</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1176239172342737</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07240029516116596</v>
+        <v>0.07643432894286177</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1705586676120815</v>
+        <v>0.1728776032881799</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>37</v>
@@ -855,19 +855,19 @@
         <v>44575</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>31814</v>
+        <v>31979</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>59104</v>
+        <v>59758</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08870309480429238</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06330873783033041</v>
+        <v>0.06363681256621688</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1176162797566387</v>
+        <v>0.1189170156719004</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>57955</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45082</v>
+        <v>45066</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>74270</v>
+        <v>72570</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.207585008192382</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1614777343671129</v>
+        <v>0.1614207849597507</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2660231527054543</v>
+        <v>0.2599357789151088</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>32</v>
@@ -905,19 +905,19 @@
         <v>33658</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>23955</v>
+        <v>23954</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>46019</v>
+        <v>45842</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1507080014925459</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1072595946045985</v>
+        <v>0.1072565817830468</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2060554669209348</v>
+        <v>0.2052605261743283</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>86</v>
@@ -926,19 +926,19 @@
         <v>91613</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>74799</v>
+        <v>75234</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>111437</v>
+        <v>114057</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1823072446723594</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1488476824473543</v>
+        <v>0.1497138818943761</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2217570743420372</v>
+        <v>0.2269712520306615</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>40514</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29582</v>
+        <v>29460</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52664</v>
+        <v>52468</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1451157305526497</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1059575100725252</v>
+        <v>0.1055231610771693</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1886365658560372</v>
+        <v>0.1879337512972785</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -976,19 +976,19 @@
         <v>40252</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29131</v>
+        <v>29358</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52397</v>
+        <v>52370</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1802316005263382</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.130438770271638</v>
+        <v>0.1314542177880664</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2346125895576653</v>
+        <v>0.2344935295975795</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>78</v>
@@ -997,19 +997,19 @@
         <v>80766</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>63759</v>
+        <v>65115</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>97746</v>
+        <v>97334</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1607222244330198</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1268792906784617</v>
+        <v>0.1295780515817535</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1945125863283607</v>
+        <v>0.1936917764107755</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>122733</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>106557</v>
+        <v>107086</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>139305</v>
+        <v>141762</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4396101866352948</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3816719580624236</v>
+        <v>0.3835674853993691</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4989687255919369</v>
+        <v>0.5077697225862339</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>85</v>
@@ -1047,19 +1047,19 @@
         <v>91279</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>77040</v>
+        <v>76664</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>107770</v>
+        <v>106679</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4087122954760136</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3449520935377298</v>
+        <v>0.3432707045547207</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4825490539835068</v>
+        <v>0.4776672646739037</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>199</v>
@@ -1068,19 +1068,19 @@
         <v>214012</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>190850</v>
+        <v>190843</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>238430</v>
+        <v>239302</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4258782828079093</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3797873390574364</v>
+        <v>0.3797735828928168</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.474469453457375</v>
+        <v>0.4762051991185663</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>51881</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38471</v>
+        <v>39288</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>64836</v>
+        <v>66853</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1364472297061634</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1011787355501799</v>
+        <v>0.1033275678960607</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1705185457862567</v>
+        <v>0.1758256737350389</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -1193,19 +1193,19 @@
         <v>42981</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31777</v>
+        <v>31891</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55779</v>
+        <v>56986</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.169856224320968</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1255786315800966</v>
+        <v>0.1260283416250272</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2204339166194094</v>
+        <v>0.2252034532528715</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>92</v>
@@ -1214,19 +1214,19 @@
         <v>94862</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>76913</v>
+        <v>76840</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>114104</v>
+        <v>113375</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1497968653697631</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1214540588791903</v>
+        <v>0.1213381174478234</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1801825163936868</v>
+        <v>0.1790316513089258</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>26754</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16830</v>
+        <v>17502</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>36286</v>
+        <v>36315</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0703635816507916</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04426340336860324</v>
+        <v>0.04603063297065958</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09543321348253775</v>
+        <v>0.09550859662031587</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -1264,19 +1264,19 @@
         <v>23081</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15107</v>
+        <v>14753</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>34514</v>
+        <v>33449</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09121330838753236</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0597030464599394</v>
+        <v>0.05830193124378998</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1363949763483331</v>
+        <v>0.1321861977110728</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>49</v>
@@ -1285,19 +1285,19 @@
         <v>49835</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>38401</v>
+        <v>36658</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>65140</v>
+        <v>64431</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07869475889303533</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06063910745045507</v>
+        <v>0.05788688453395897</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1028625587328956</v>
+        <v>0.1017441191803159</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>70094</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>55663</v>
+        <v>56038</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>85899</v>
+        <v>87962</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1843494384968</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1463955869603875</v>
+        <v>0.1473805266278939</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2259154340146521</v>
+        <v>0.2313419124230693</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>34</v>
@@ -1335,19 +1335,19 @@
         <v>37056</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>27089</v>
+        <v>25910</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>51183</v>
+        <v>49881</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.146440663322756</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1070520378517324</v>
+        <v>0.1023927409456046</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2022681767175591</v>
+        <v>0.1971237723817895</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>102</v>
@@ -1356,19 +1356,19 @@
         <v>107150</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>89042</v>
+        <v>89651</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>127796</v>
+        <v>125976</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.169201771143693</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1406073260060764</v>
+        <v>0.1415693203073629</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2018043844611706</v>
+        <v>0.1989292673522124</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>79935</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>64856</v>
+        <v>64488</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>97398</v>
+        <v>96580</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2102301271636194</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1705714600163655</v>
+        <v>0.1696033742527756</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2561580023233453</v>
+        <v>0.2540062794501056</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -1406,19 +1406,19 @@
         <v>43343</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31114</v>
+        <v>31129</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>56994</v>
+        <v>56525</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1712868986838681</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.122957430438867</v>
+        <v>0.1230173978332739</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2252362287241866</v>
+        <v>0.2233812438478716</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>117</v>
@@ -1427,19 +1427,19 @@
         <v>123278</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>102345</v>
+        <v>103401</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>145024</v>
+        <v>144112</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.194669110803713</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1616132592248738</v>
+        <v>0.1632819577822339</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2290091411202514</v>
+        <v>0.2275686990061307</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>151562</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>132527</v>
+        <v>131554</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>172485</v>
+        <v>172059</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3986096229826256</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3485474520350165</v>
+        <v>0.3459888318493684</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.453637126324793</v>
+        <v>0.4525185707829328</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>96</v>
@@ -1477,19 +1477,19 @@
         <v>106582</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>89479</v>
+        <v>90771</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>124564</v>
+        <v>124084</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4212029052848756</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3536133499035092</v>
+        <v>0.3587163795642101</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4922656814521486</v>
+        <v>0.4903655167411702</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>238</v>
@@ -1498,19 +1498,19 @@
         <v>258144</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>233721</v>
+        <v>231506</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>286270</v>
+        <v>281865</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4076374937897956</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3690700062772003</v>
+        <v>0.3655723781015743</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4520515125548179</v>
+        <v>0.4450959060092413</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>31526</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21350</v>
+        <v>21314</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>45998</v>
+        <v>46241</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0691636275430584</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04683934254040957</v>
+        <v>0.04676044056444213</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1009132172963802</v>
+        <v>0.1014462286201286</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -1623,19 +1623,19 @@
         <v>26862</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17410</v>
+        <v>18173</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>38793</v>
+        <v>38263</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09639582961328423</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06247660255100523</v>
+        <v>0.06521420674699527</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.13921309804257</v>
+        <v>0.1373087637724161</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>52</v>
@@ -1644,19 +1644,19 @@
         <v>58388</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>43103</v>
+        <v>44433</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>75871</v>
+        <v>75069</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07949551441098832</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05868542058883893</v>
+        <v>0.06049536631583236</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1032991165447199</v>
+        <v>0.1022071250915434</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>32197</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>23344</v>
+        <v>22241</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>44403</v>
+        <v>44932</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07063544690748075</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05121396217298812</v>
+        <v>0.04879317766323351</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09741378482598774</v>
+        <v>0.09857318979540677</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -1694,19 +1694,19 @@
         <v>17798</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11052</v>
+        <v>11058</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>28391</v>
+        <v>28720</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06387097329326268</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03966219018264341</v>
+        <v>0.03968382743711482</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1018843910232453</v>
+        <v>0.1030656123899378</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>48</v>
@@ -1715,19 +1715,19 @@
         <v>49995</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>37558</v>
+        <v>36718</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>66340</v>
+        <v>65569</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06806900825066674</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05113527446094602</v>
+        <v>0.04999159579614232</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09032212898680822</v>
+        <v>0.08927219707879297</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>90945</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>75292</v>
+        <v>73179</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>110886</v>
+        <v>110956</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1995185501113229</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1651799900824551</v>
+        <v>0.1605429585501995</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2432677423863022</v>
+        <v>0.2434211426343993</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>38</v>
@@ -1765,19 +1765,19 @@
         <v>40933</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>29709</v>
+        <v>29950</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>53385</v>
+        <v>54256</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1468917732567181</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.10661220977409</v>
+        <v>0.1074774070747036</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1915759836093566</v>
+        <v>0.1947013615780503</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>123</v>
@@ -1786,19 +1786,19 @@
         <v>131878</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>110980</v>
+        <v>111752</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>152579</v>
+        <v>155081</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1795519714525938</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1510999793872013</v>
+        <v>0.1521508348179237</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2077371110439706</v>
+        <v>0.2111430307906988</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>88369</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>72595</v>
+        <v>72501</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>106297</v>
+        <v>105498</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1938676781248816</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1592618124180453</v>
+        <v>0.1590563216134472</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2331999334103691</v>
+        <v>0.23144605305791</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>57</v>
@@ -1836,19 +1836,19 @@
         <v>57872</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>45457</v>
+        <v>44142</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>71825</v>
+        <v>71148</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2076788331837637</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1631257892284077</v>
+        <v>0.1584065288255986</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2577497437016883</v>
+        <v>0.2553184482038149</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>143</v>
@@ -1857,19 +1857,19 @@
         <v>146241</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>124402</v>
+        <v>125151</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>167960</v>
+        <v>168148</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1991076249795586</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1693743310498209</v>
+        <v>0.1703938618768955</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2286788266751123</v>
+        <v>0.228934539799486</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>212783</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>189055</v>
+        <v>191776</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>233740</v>
+        <v>234829</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4668146973132563</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4147581004862373</v>
+        <v>0.4207273136527761</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5127910476394566</v>
+        <v>0.5151782506444822</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>126</v>
@@ -1907,19 +1907,19 @@
         <v>135196</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>119226</v>
+        <v>118649</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>152568</v>
+        <v>152669</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4851625906529713</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4278501083710828</v>
+        <v>0.425781104765822</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5475008851150447</v>
+        <v>0.547863031000658</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>327</v>
@@ -1928,19 +1928,19 @@
         <v>347980</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>321494</v>
+        <v>319011</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>377563</v>
+        <v>376601</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4737758809061925</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4377156086084497</v>
+        <v>0.4343347742838654</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5140536727276064</v>
+        <v>0.5127431365621299</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>35021</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24513</v>
+        <v>23539</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48959</v>
+        <v>49665</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1185264206155312</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08296200186060669</v>
+        <v>0.07966490037113029</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1656988191307537</v>
+        <v>0.1680859585949486</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>25</v>
@@ -2053,19 +2053,19 @@
         <v>28258</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18841</v>
+        <v>18836</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40211</v>
+        <v>40072</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1523683021347683</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1015937094167003</v>
+        <v>0.1015649584381856</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2168221455966438</v>
+        <v>0.2160714235218499</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>56</v>
@@ -2074,19 +2074,19 @@
         <v>63279</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>49996</v>
+        <v>48691</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>79812</v>
+        <v>79860</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1315766494869497</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1039565003429547</v>
+        <v>0.1012429744603135</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1659525428818111</v>
+        <v>0.1660528781454872</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>7923</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3703</v>
+        <v>3074</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17059</v>
+        <v>16433</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02681626858343487</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01253155818705215</v>
+        <v>0.01040341358642533</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05773372551372563</v>
+        <v>0.05561543843240636</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -2124,19 +2124,19 @@
         <v>5800</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1917</v>
+        <v>2015</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>13026</v>
+        <v>14698</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03127586647360527</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01033506914978627</v>
+        <v>0.01086581041350222</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07023658260933638</v>
+        <v>0.07925112958434295</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>12</v>
@@ -2145,19 +2145,19 @@
         <v>13724</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6774</v>
+        <v>7132</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>23692</v>
+        <v>23975</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02853599486721541</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01408516541677182</v>
+        <v>0.01482871549541275</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04926233079255688</v>
+        <v>0.04985122884101244</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>46488</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>34516</v>
+        <v>33274</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>62305</v>
+        <v>62126</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1573332384815815</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1168167113508731</v>
+        <v>0.1126133745331299</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2108650753191769</v>
+        <v>0.2102592097558312</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>25</v>
@@ -2195,19 +2195,19 @@
         <v>26894</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>17939</v>
+        <v>17692</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>38503</v>
+        <v>37828</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1450152388288684</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09672753623219497</v>
+        <v>0.0953984897228692</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2076078664345749</v>
+        <v>0.2039733819918111</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>65</v>
@@ -2216,19 +2216,19 @@
         <v>73382</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>57891</v>
+        <v>58691</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>92347</v>
+        <v>91675</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.152583126859845</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1203729933611162</v>
+        <v>0.1220363032868607</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.19201840405618</v>
+        <v>0.1906198747298241</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>53584</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>41152</v>
+        <v>41530</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>68124</v>
+        <v>68088</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1813496810877283</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1392741540956497</v>
+        <v>0.1405539616479785</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.230558523955324</v>
+        <v>0.2304385659368632</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>33</v>
@@ -2266,19 +2266,19 @@
         <v>37523</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>26539</v>
+        <v>26724</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>50777</v>
+        <v>50037</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2023251907070995</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1430990250599337</v>
+        <v>0.1440990726305032</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2737911210170303</v>
+        <v>0.2698021789416568</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>85</v>
@@ -2287,19 +2287,19 @@
         <v>91107</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>74486</v>
+        <v>73410</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>109589</v>
+        <v>110519</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1894383330461554</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1548781208979715</v>
+        <v>0.1526427221169209</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2278692717213104</v>
+        <v>0.2298032795333988</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>152456</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>134446</v>
+        <v>133283</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>170333</v>
+        <v>168926</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5159743912317241</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4550201454318624</v>
+        <v>0.4510845561235881</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5764778063772084</v>
+        <v>0.5717149910696432</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>80</v>
@@ -2337,19 +2337,19 @@
         <v>86983</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>72558</v>
+        <v>72996</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>102064</v>
+        <v>100508</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4690154018556586</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.391236642689809</v>
+        <v>0.3935958890992612</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5503354036050775</v>
+        <v>0.5419474008445819</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>218</v>
@@ -2358,19 +2358,19 @@
         <v>239439</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>217504</v>
+        <v>216062</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>264853</v>
+        <v>262335</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4978658957398345</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4522562098038097</v>
+        <v>0.4492589995933928</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5507099180019158</v>
+        <v>0.5454744493645658</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>158106</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>133739</v>
+        <v>134626</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>183719</v>
+        <v>181672</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1120762374572042</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09480312081269777</v>
+        <v>0.09543180865045423</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1302319304292352</v>
+        <v>0.1287812868597858</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>119</v>
@@ -2483,19 +2483,19 @@
         <v>129976</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>108913</v>
+        <v>106392</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>152363</v>
+        <v>152404</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1381991056991773</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1158034412783348</v>
+        <v>0.1131233319393111</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1620022258275037</v>
+        <v>0.1620466128284967</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>266</v>
@@ -2504,19 +2504,19 @@
         <v>288082</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>259117</v>
+        <v>256634</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>323780</v>
+        <v>325088</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1225255722982545</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1102064073985062</v>
+        <v>0.1091500266997604</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.137708430527768</v>
+        <v>0.1382647286819573</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>85180</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>68793</v>
+        <v>69128</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>107160</v>
+        <v>105569</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06038134944609733</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04876504135951151</v>
+        <v>0.04900267760320269</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07596230988549646</v>
+        <v>0.07483426848522592</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>65</v>
@@ -2554,19 +2554,19 @@
         <v>72949</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>54968</v>
+        <v>57516</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>91078</v>
+        <v>92728</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07756438669975141</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05844551177480144</v>
+        <v>0.06115442799598873</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09683993492352175</v>
+        <v>0.09859497862066698</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>146</v>
@@ -2575,19 +2575,19 @@
         <v>158129</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>133548</v>
+        <v>132703</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>187294</v>
+        <v>185808</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06725468770997056</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05679986498762764</v>
+        <v>0.05644041927679649</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07965898719489226</v>
+        <v>0.0790269293278999</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>265481</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>236086</v>
+        <v>237295</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>297327</v>
+        <v>297163</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1881907044639335</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1673536806224926</v>
+        <v>0.168210510506769</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2107653504212962</v>
+        <v>0.2106492207028609</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>129</v>
@@ -2625,19 +2625,19 @@
         <v>138541</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>116859</v>
+        <v>117390</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>162114</v>
+        <v>162462</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1473065804696905</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1242521084306639</v>
+        <v>0.1248166677843626</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1723705160328524</v>
+        <v>0.1727410071185169</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>376</v>
@@ -2646,19 +2646,19 @@
         <v>404023</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>364229</v>
+        <v>366165</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>443005</v>
+        <v>442123</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1718367613462924</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1549119350416982</v>
+        <v>0.1557353551801917</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1884164036084677</v>
+        <v>0.1880414014428674</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>262402</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>234344</v>
+        <v>232746</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>290916</v>
+        <v>294298</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1860076783445163</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1661186958598864</v>
+        <v>0.1649857598755109</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2062204122368551</v>
+        <v>0.2086177878763241</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>168</v>
@@ -2696,19 +2696,19 @@
         <v>178990</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>154313</v>
+        <v>159584</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>204998</v>
+        <v>206654</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1903140893094795</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1640764633579822</v>
+        <v>0.1696808842515933</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.217967456240223</v>
+        <v>0.2197288372681458</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>423</v>
@@ -2717,19 +2717,19 @@
         <v>441391</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>406493</v>
+        <v>402699</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>481520</v>
+        <v>479981</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.187730273647576</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1728874757887938</v>
+        <v>0.171273971340247</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2047975479962363</v>
+        <v>0.2041428504110987</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>639534</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>599159</v>
+        <v>603295</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>680198</v>
+        <v>678333</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4533440302882487</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4247237377251937</v>
+        <v>0.427655781744685</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4821693947426583</v>
+        <v>0.4808473023587488</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>387</v>
@@ -2767,19 +2767,19 @@
         <v>420041</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>388820</v>
+        <v>386489</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>452705</v>
+        <v>449179</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4466158378219013</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4134195097193042</v>
+        <v>0.4109413411427638</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4813460934295665</v>
+        <v>0.477597267925867</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>982</v>
@@ -2788,19 +2788,19 @@
         <v>1059575</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1011722</v>
+        <v>1013703</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1111759</v>
+        <v>1112810</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4506527049979066</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4303002090846743</v>
+        <v>0.4311426575474448</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4728472881532861</v>
+        <v>0.4732945114146964</v>
       </c>
     </row>
     <row r="33">
@@ -3132,19 +3132,19 @@
         <v>42849</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31797</v>
+        <v>31372</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58192</v>
+        <v>56251</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1459529524157603</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1083078812506141</v>
+        <v>0.1068604762189328</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.198217780076888</v>
+        <v>0.1916061847968505</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>50</v>
@@ -3153,19 +3153,19 @@
         <v>51365</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>39095</v>
+        <v>39661</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>65600</v>
+        <v>64766</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1852794127180379</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1410196844540435</v>
+        <v>0.1430606931196668</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2366263305664494</v>
+        <v>0.233618942297009</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>89</v>
@@ -3174,19 +3174,19 @@
         <v>94214</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>76955</v>
+        <v>76068</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>113513</v>
+        <v>112708</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1650530509481432</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1348182469440246</v>
+        <v>0.1332636806297463</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1988639321962119</v>
+        <v>0.1974535807884992</v>
       </c>
     </row>
     <row r="5">
@@ -3203,19 +3203,19 @@
         <v>62882</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>49184</v>
+        <v>49230</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>78957</v>
+        <v>77762</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.214192909218674</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1675318015618165</v>
+        <v>0.1676890930887386</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.268946988036239</v>
+        <v>0.2648768145602907</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>45</v>
@@ -3224,19 +3224,19 @@
         <v>45088</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>34234</v>
+        <v>33171</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>58797</v>
+        <v>58181</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1626353179875369</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1234844142308766</v>
+        <v>0.1196506509920632</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2120873131045435</v>
+        <v>0.2098657371955885</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>101</v>
@@ -3245,19 +3245,19 @@
         <v>107970</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>88697</v>
+        <v>89285</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>126417</v>
+        <v>127009</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1891523877723538</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1553885594736959</v>
+        <v>0.1564180375646023</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2214691537831869</v>
+        <v>0.222506750505188</v>
       </c>
     </row>
     <row r="6">
@@ -3274,19 +3274,19 @@
         <v>62664</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>48254</v>
+        <v>49076</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>76981</v>
+        <v>76386</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.213448275921715</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1643662622322728</v>
+        <v>0.1671635355873146</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2622158463219159</v>
+        <v>0.2601903678274202</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>66</v>
@@ -3295,19 +3295,19 @@
         <v>66991</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>53540</v>
+        <v>52728</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>83223</v>
+        <v>82485</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.241644627124232</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.193123315996937</v>
+        <v>0.1901950847947672</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3001939894746063</v>
+        <v>0.2975319383027325</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>124</v>
@@ -3316,19 +3316,19 @@
         <v>129655</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>110570</v>
+        <v>111387</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>151839</v>
+        <v>151661</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2271426964742446</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1937080878720328</v>
+        <v>0.1951384346074728</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.266006311292179</v>
+        <v>0.2656955937723383</v>
       </c>
     </row>
     <row r="7">
@@ -3345,19 +3345,19 @@
         <v>71921</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>58517</v>
+        <v>57660</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>88172</v>
+        <v>88168</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2449814359785627</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1993247453868555</v>
+        <v>0.1964034291384183</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3003370241774168</v>
+        <v>0.3003235433154635</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>50</v>
@@ -3366,19 +3366,19 @@
         <v>52092</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39753</v>
+        <v>39459</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66055</v>
+        <v>65768</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1879011068303744</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1433918469507651</v>
+        <v>0.1423311091500517</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2382681959469322</v>
+        <v>0.237231279601693</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>118</v>
@@ -3387,19 +3387,19 @@
         <v>124013</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>104864</v>
+        <v>104443</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>146431</v>
+        <v>144441</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2172586279096121</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1837106094500764</v>
+        <v>0.1829737090298426</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2565323358791432</v>
+        <v>0.2530457484437491</v>
       </c>
     </row>
     <row r="8">
@@ -3416,19 +3416,19 @@
         <v>53262</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>40093</v>
+        <v>40739</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>67115</v>
+        <v>69654</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.181424426465288</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1365667447554142</v>
+        <v>0.1387659548918123</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2286119048060909</v>
+        <v>0.2372578211121117</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>59</v>
@@ -3437,19 +3437,19 @@
         <v>61695</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>49638</v>
+        <v>49253</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>77168</v>
+        <v>77869</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2225395353398189</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1790495583161844</v>
+        <v>0.1776621785490263</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2783536727775074</v>
+        <v>0.2808796755570743</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>107</v>
@@ -3458,19 +3458,19 @@
         <v>114957</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>96571</v>
+        <v>96766</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>135614</v>
+        <v>133759</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2013932368956463</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1691826468058995</v>
+        <v>0.1695240368572523</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2375820293597452</v>
+        <v>0.2343327174301291</v>
       </c>
     </row>
     <row r="9">
@@ -3562,19 +3562,19 @@
         <v>48565</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36717</v>
+        <v>37040</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>62734</v>
+        <v>63557</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1243741541618538</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09403133530143548</v>
+        <v>0.09485812796822242</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1606607741400588</v>
+        <v>0.1627688470651361</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -3583,19 +3583,19 @@
         <v>49541</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36436</v>
+        <v>36946</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61348</v>
+        <v>62464</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.183447569749469</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1349212113248432</v>
+        <v>0.1368115464893517</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2271684463007197</v>
+        <v>0.2313031183997251</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>93</v>
@@ -3604,19 +3604,19 @@
         <v>98105</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>79905</v>
+        <v>80497</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>116893</v>
+        <v>116652</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1485259822426441</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1209720327588695</v>
+        <v>0.1218672758880397</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1769696163779421</v>
+        <v>0.1766046237986865</v>
       </c>
     </row>
     <row r="11">
@@ -3633,19 +3633,19 @@
         <v>57588</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>45532</v>
+        <v>44857</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>73853</v>
+        <v>73375</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1474834974188405</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1166066579830263</v>
+        <v>0.1148779012217758</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1891372712132496</v>
+        <v>0.1879132972138861</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>42</v>
@@ -3654,19 +3654,19 @@
         <v>43136</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>33206</v>
+        <v>32795</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>56300</v>
+        <v>55607</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1597321198961503</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1229601155620259</v>
+        <v>0.1214389488386769</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2084782264759156</v>
+        <v>0.2059103484429251</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>96</v>
@@ -3675,19 +3675,19 @@
         <v>100725</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>84568</v>
+        <v>85160</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>120714</v>
+        <v>122645</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1524912766602445</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1280308234802137</v>
+        <v>0.1289270046216914</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1827539490367409</v>
+        <v>0.1856774317107194</v>
       </c>
     </row>
     <row r="12">
@@ -3704,19 +3704,19 @@
         <v>106955</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>89732</v>
+        <v>90322</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>125459</v>
+        <v>124886</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2739105253166184</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2298027082841717</v>
+        <v>0.2313140047884663</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3213000140325551</v>
+        <v>0.3198323147229985</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>61</v>
@@ -3725,19 +3725,19 @@
         <v>61874</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>50007</v>
+        <v>49210</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>75810</v>
+        <v>75751</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.229116809363671</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1851732913830729</v>
+        <v>0.1822249659914344</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.280722244999528</v>
+        <v>0.2805042683671632</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>165</v>
@@ -3746,19 +3746,19 @@
         <v>168829</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>148238</v>
+        <v>147075</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>194670</v>
+        <v>190689</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2555968707558662</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2244231333851648</v>
+        <v>0.2226636394362765</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2947190518711701</v>
+        <v>0.2886919214277548</v>
       </c>
     </row>
     <row r="13">
@@ -3775,19 +3775,19 @@
         <v>92066</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>74941</v>
+        <v>76356</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>110752</v>
+        <v>110032</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2357796433409757</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1919221354737845</v>
+        <v>0.1955476905741355</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.283635357257893</v>
+        <v>0.2817918970386226</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -3796,19 +3796,19 @@
         <v>46934</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36368</v>
+        <v>35255</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>61744</v>
+        <v>59983</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.173795097611913</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1346706447355021</v>
+        <v>0.1305478861547353</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2286351584398267</v>
+        <v>0.2221139324640436</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>133</v>
@@ -3817,19 +3817,19 @@
         <v>139000</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>117882</v>
+        <v>118364</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>161619</v>
+        <v>161383</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2104376163526452</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1784665165486338</v>
+        <v>0.1791961683281265</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2446820559352763</v>
+        <v>0.2443253284407013</v>
       </c>
     </row>
     <row r="14">
@@ -3846,19 +3846,19 @@
         <v>85300</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>70402</v>
+        <v>69375</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>104566</v>
+        <v>101658</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2184521797617116</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1802989088852524</v>
+        <v>0.1776679569159823</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2677914599561254</v>
+        <v>0.2603447424508076</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>65</v>
@@ -3867,19 +3867,19 @@
         <v>68569</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>52824</v>
+        <v>54858</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>82702</v>
+        <v>83075</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2539084033787967</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1956046929911892</v>
+        <v>0.2031369715579696</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3062423231971313</v>
+        <v>0.3076238207298596</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>147</v>
@@ -3888,19 +3888,19 @@
         <v>153869</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>133445</v>
+        <v>133557</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>177252</v>
+        <v>177473</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2329482539886</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2020280263072152</v>
+        <v>0.2021972196549498</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2683499713878597</v>
+        <v>0.2686836740361461</v>
       </c>
     </row>
     <row r="15">
@@ -3992,19 +3992,19 @@
         <v>56393</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41929</v>
+        <v>42669</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>71241</v>
+        <v>71515</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1236176528000195</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0919116045795462</v>
+        <v>0.09353314106609605</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.156165133695011</v>
+        <v>0.15676635874324</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>44</v>
@@ -4013,19 +4013,19 @@
         <v>44588</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>34629</v>
+        <v>34140</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>59732</v>
+        <v>57199</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1534158319889903</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.119148911619151</v>
+        <v>0.1174673329243664</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2055213348944948</v>
+        <v>0.1968071330505426</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>97</v>
@@ -4034,19 +4034,19 @@
         <v>100981</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>82399</v>
+        <v>84683</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>120425</v>
+        <v>122042</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1352139632313153</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1103322237343455</v>
+        <v>0.1133913717628744</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1612492859771319</v>
+        <v>0.1634145982292375</v>
       </c>
     </row>
     <row r="17">
@@ -4063,19 +4063,19 @@
         <v>44060</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>31387</v>
+        <v>31307</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>58118</v>
+        <v>57621</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09658254071739369</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06880260115273985</v>
+        <v>0.06862738503774382</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1273985655968573</v>
+        <v>0.1263101508953603</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>40</v>
@@ -4084,7 +4084,7 @@
         <v>39059</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>28422</v>
+        <v>28466</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>51338</v>
@@ -4093,10 +4093,10 @@
         <v>0.1343906979759268</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0977922275521442</v>
+        <v>0.09794363705503763</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.176639710866226</v>
+        <v>0.1766408155510587</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>81</v>
@@ -4105,19 +4105,19 @@
         <v>83119</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>67881</v>
+        <v>67741</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>101864</v>
+        <v>100613</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1112960279282995</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09089251147381754</v>
+        <v>0.0907052323312766</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1363958793824314</v>
+        <v>0.134721207117605</v>
       </c>
     </row>
     <row r="18">
@@ -4134,19 +4134,19 @@
         <v>101425</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>85086</v>
+        <v>84949</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>121423</v>
+        <v>118546</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2223311244044801</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1865142979428515</v>
+        <v>0.1862154680548994</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2661694829130935</v>
+        <v>0.259861671433619</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>73</v>
@@ -4155,19 +4155,19 @@
         <v>71364</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>57637</v>
+        <v>57199</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>85037</v>
+        <v>85546</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2455464539327104</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.198314696114387</v>
+        <v>0.1968069219007917</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2925913882030323</v>
+        <v>0.2943406805153702</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>171</v>
@@ -4176,19 +4176,19 @@
         <v>172789</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>150473</v>
+        <v>147869</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>197208</v>
+        <v>195717</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2313656417911609</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2014832247732052</v>
+        <v>0.1979968677511756</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2640616704262951</v>
+        <v>0.2620656848933231</v>
       </c>
     </row>
     <row r="19">
@@ -4205,19 +4205,19 @@
         <v>111267</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>93310</v>
+        <v>93014</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>130164</v>
+        <v>131402</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2439056406438508</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2045431139740659</v>
+        <v>0.2038950223198351</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2853293650781686</v>
+        <v>0.2880429108483678</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>70</v>
@@ -4226,19 +4226,19 @@
         <v>70271</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>55449</v>
+        <v>57916</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>84264</v>
+        <v>87046</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2417860096179603</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1907848714787106</v>
+        <v>0.199273097687196</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2899295425534696</v>
+        <v>0.2995016358042094</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>173</v>
@@ -4247,19 +4247,19 @@
         <v>181539</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>154708</v>
+        <v>157886</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>204735</v>
+        <v>206638</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2430807614047485</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2071542079447651</v>
+        <v>0.2114103166755308</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2741407697713694</v>
+        <v>0.276689685123875</v>
       </c>
     </row>
     <row r="20">
@@ -4276,19 +4276,19 @@
         <v>143044</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>124419</v>
+        <v>122356</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>165507</v>
+        <v>162462</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.313563041434256</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.272736649990583</v>
+        <v>0.2682145777008486</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.362805099763057</v>
+        <v>0.3561304626348505</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>64</v>
@@ -4297,19 +4297,19 @@
         <v>65352</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>51470</v>
+        <v>51529</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>79432</v>
+        <v>81204</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2248610064844122</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1770964487789738</v>
+        <v>0.1772990181591381</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2733054710190339</v>
+        <v>0.2794020441087178</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>196</v>
@@ -4318,19 +4318,19 @@
         <v>208396</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>185024</v>
+        <v>184225</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>235530</v>
+        <v>233838</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2790436056444757</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.247748091058508</v>
+        <v>0.2466781514676104</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3153758172033883</v>
+        <v>0.3131100931635752</v>
       </c>
     </row>
     <row r="21">
@@ -4422,19 +4422,19 @@
         <v>60225</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>47183</v>
+        <v>46378</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>76202</v>
+        <v>77018</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.218881400302686</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1714807848605474</v>
+        <v>0.1685559888682351</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2769464458476827</v>
+        <v>0.2799131807506113</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>45</v>
@@ -4443,19 +4443,19 @@
         <v>48908</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>37246</v>
+        <v>37303</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>62946</v>
+        <v>63002</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2520200090746913</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1919264416813117</v>
+        <v>0.1922192172697025</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3243574704493822</v>
+        <v>0.3246495511920939</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>97</v>
@@ -4464,19 +4464,19 @@
         <v>109133</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>89087</v>
+        <v>91557</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>128862</v>
+        <v>130059</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2325873024156677</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1898655861557716</v>
+        <v>0.1951294840060562</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.274635351373484</v>
+        <v>0.277186613808469</v>
       </c>
     </row>
     <row r="23">
@@ -4493,19 +4493,19 @@
         <v>17863</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10446</v>
+        <v>11361</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>27785</v>
+        <v>27193</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06492241720168661</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03796327508179078</v>
+        <v>0.04128961575867746</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1009809571376214</v>
+        <v>0.09883092747354512</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>15</v>
@@ -4514,19 +4514,19 @@
         <v>16140</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>9448</v>
+        <v>9820</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>25065</v>
+        <v>25787</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08316769006462052</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04868573895169073</v>
+        <v>0.05060274469485001</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1291595215199965</v>
+        <v>0.1328793177575953</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>32</v>
@@ -4535,19 +4535,19 @@
         <v>34003</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>23271</v>
+        <v>24322</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>45626</v>
+        <v>45982</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.07246853736637092</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04959594073619999</v>
+        <v>0.05183492751756345</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09723866696547197</v>
+        <v>0.09799824609132041</v>
       </c>
     </row>
     <row r="24">
@@ -4564,19 +4564,19 @@
         <v>50732</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>38166</v>
+        <v>38901</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>65402</v>
+        <v>66230</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1843804397161203</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1387110359931378</v>
+        <v>0.1413821085436468</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2376957761946184</v>
+        <v>0.2407059747932471</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>33</v>
@@ -4585,19 +4585,19 @@
         <v>35051</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>25953</v>
+        <v>25077</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>48066</v>
+        <v>46246</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1806185354641406</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1337336500256564</v>
+        <v>0.1292229126551817</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2476849638377572</v>
+        <v>0.2383053450205236</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>78</v>
@@ -4606,19 +4606,19 @@
         <v>85783</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>68621</v>
+        <v>69428</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>104770</v>
+        <v>104210</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1828245418270212</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1462482936008894</v>
+        <v>0.1479667443001221</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2232895737040793</v>
+        <v>0.2220949342511608</v>
       </c>
     </row>
     <row r="25">
@@ -4635,19 +4635,19 @@
         <v>44680</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>32539</v>
+        <v>33063</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>58789</v>
+        <v>57647</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1623854126363225</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1182600529539549</v>
+        <v>0.1201642168001539</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2136637396127313</v>
+        <v>0.2095121446753817</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>38</v>
@@ -4656,19 +4656,19 @@
         <v>38186</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>28772</v>
+        <v>28022</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>50739</v>
+        <v>50844</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1967729153937853</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1482620716158546</v>
+        <v>0.1443988090540556</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2614588549336943</v>
+        <v>0.2619998396135761</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>79</v>
@@ -4677,19 +4677,19 @@
         <v>82867</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>66422</v>
+        <v>67076</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>101523</v>
+        <v>100777</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1766078487665268</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1415606306644313</v>
+        <v>0.1429548908908445</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2163686089353935</v>
+        <v>0.2147792616977325</v>
       </c>
     </row>
     <row r="26">
@@ -4706,19 +4706,19 @@
         <v>101648</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>85908</v>
+        <v>86117</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>119763</v>
+        <v>118753</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3694303301431845</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3122240665677771</v>
+        <v>0.3129831285170659</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.435264733540048</v>
+        <v>0.431595977227602</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>53</v>
@@ -4727,19 +4727,19 @@
         <v>55778</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>44947</v>
+        <v>43938</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>70304</v>
+        <v>70178</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2874208500027622</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.23161164220327</v>
+        <v>0.2264100480227872</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3622739243090835</v>
+        <v>0.3616232805483585</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>147</v>
@@ -4748,19 +4748,19 @@
         <v>157426</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>135331</v>
+        <v>136581</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>179786</v>
+        <v>178769</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3355117696244133</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2884215056260618</v>
+        <v>0.2910868263734675</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3831651936459435</v>
+        <v>0.3809993664730886</v>
       </c>
     </row>
     <row r="27">
@@ -4852,19 +4852,19 @@
         <v>208031</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>181193</v>
+        <v>181651</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>236398</v>
+        <v>235375</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1469782126217661</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1280161132158849</v>
+        <v>0.1283400734348772</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1670196779054851</v>
+        <v>0.1662968225889632</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>187</v>
@@ -4873,19 +4873,19 @@
         <v>194402</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>169066</v>
+        <v>170407</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>220246</v>
+        <v>221772</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1883768620046717</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1638268542358808</v>
+        <v>0.1651255772084693</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2134206483946004</v>
+        <v>0.2148986135241817</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>376</v>
@@ -4894,19 +4894,19 @@
         <v>402433</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>366840</v>
+        <v>364414</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>437381</v>
+        <v>441415</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1644347536529727</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1498912954891558</v>
+        <v>0.1489000685673632</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1787146117529075</v>
+        <v>0.1803629063201287</v>
       </c>
     </row>
     <row r="29">
@@ -4923,19 +4923,19 @@
         <v>182394</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>156592</v>
+        <v>155682</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>209182</v>
+        <v>208613</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1288648617479254</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1106351328912528</v>
+        <v>0.1099925705484056</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1477912861196693</v>
+        <v>0.1473892586511501</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>142</v>
@@ -4944,19 +4944,19 @@
         <v>143422</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>121200</v>
+        <v>122771</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>167556</v>
+        <v>167756</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.138977315025586</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1174442481814948</v>
+        <v>0.1189661708423892</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1623628920743687</v>
+        <v>0.162556967799646</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>310</v>
@@ -4965,19 +4965,19 @@
         <v>325816</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>297304</v>
+        <v>294406</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>365276</v>
+        <v>361562</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1331289732153042</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1214787416714128</v>
+        <v>0.1202949053157769</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1492524590976571</v>
+        <v>0.1477345952446226</v>
       </c>
     </row>
     <row r="30">
@@ -4994,19 +4994,19 @@
         <v>321776</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>290451</v>
+        <v>292053</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>354375</v>
+        <v>355760</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2273407046152037</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2052093269443385</v>
+        <v>0.2063408234180455</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2503724776443029</v>
+        <v>0.2513512438094767</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>233</v>
@@ -5015,19 +5015,19 @@
         <v>235281</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>210123</v>
+        <v>209558</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>263195</v>
+        <v>263288</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2279892776830816</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2036107417787917</v>
+        <v>0.203063728536047</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2550379276539153</v>
+        <v>0.2551283244000766</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>538</v>
@@ -5036,19 +5036,19 @@
         <v>557057</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>517875</v>
+        <v>513988</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>599698</v>
+        <v>598262</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2276141879906256</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2116044377077439</v>
+        <v>0.2100163314723469</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2450377054196963</v>
+        <v>0.2444506587980279</v>
       </c>
     </row>
     <row r="31">
@@ -5065,19 +5065,19 @@
         <v>319934</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>287261</v>
+        <v>289478</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>353269</v>
+        <v>353126</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2260396133390075</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2029556224514295</v>
+        <v>0.2045215924806272</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2495911792032574</v>
+        <v>0.2494904768716605</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>205</v>
@@ -5086,19 +5086,19 @@
         <v>207484</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>183323</v>
+        <v>183941</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>234249</v>
+        <v>234519</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2010536406552324</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1776420487481635</v>
+        <v>0.178240496947014</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2269890315133216</v>
+        <v>0.2272507269150285</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>503</v>
@@ -5107,19 +5107,19 @@
         <v>527418</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>491287</v>
+        <v>489457</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>572044</v>
+        <v>569147</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2155037948072312</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2007406627712689</v>
+        <v>0.1999927318316648</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2337382687792349</v>
+        <v>0.2325541748009028</v>
       </c>
     </row>
     <row r="32">
@@ -5136,19 +5136,19 @@
         <v>383255</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>346520</v>
+        <v>347456</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>416037</v>
+        <v>415287</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2707766076760973</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2448233043552417</v>
+        <v>0.245484400608441</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2939383250272085</v>
+        <v>0.2934080014457981</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>241</v>
@@ -5157,19 +5157,19 @@
         <v>251394</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>221346</v>
+        <v>223650</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>276586</v>
+        <v>282098</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2436029046314284</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2144862209914911</v>
+        <v>0.2167185145121633</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.268014164931873</v>
+        <v>0.273355553054642</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>597</v>
@@ -5178,19 +5178,19 @@
         <v>634648</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>589279</v>
+        <v>593340</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>678177</v>
+        <v>681308</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2593182903338663</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2407802892463596</v>
+        <v>0.2424397610962047</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2771040801667438</v>
+        <v>0.2783834206246421</v>
       </c>
     </row>
     <row r="33">
